--- a/Project 1/Class Time  Group Number  Todo list for projects 1.xlsx
+++ b/Project 1/Class Time  Group Number  Todo list for projects 1.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackmamdouh/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny-my.sharepoint.com/personal/zackaria_mamdouh55_qmail_cuny_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A879B1-0364-5D48-A5B1-1174B76D8CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41334330-DFD7-4835-B77B-9A341F3CE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="500" windowWidth="20000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="15315" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sabrina" sheetId="1" r:id="rId1"/>
     <sheet name="Zack" sheetId="4" r:id="rId2"/>
     <sheet name="Auyon" sheetId="5" r:id="rId3"/>
     <sheet name="Prithibi" sheetId="6" r:id="rId4"/>
-    <sheet name="Group member 5" sheetId="7" r:id="rId5"/>
-    <sheet name="Group member 6" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">#REF!</definedName>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>To-do list</t>
   </si>
@@ -66,91 +64,88 @@
     <t>Deadline:</t>
   </si>
   <si>
+    <t>Date 3/24/24</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>% done</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Start By</t>
+  </si>
+  <si>
+    <t>Original Due By</t>
+  </si>
+  <si>
+    <t>Revised Due By</t>
+  </si>
+  <si>
+    <t>Number Of Days</t>
+  </si>
+  <si>
+    <t>Revision Notes</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Create JDBC</t>
+  </si>
+  <si>
+    <t>Create Pokemon DB</t>
+  </si>
+  <si>
+    <t>Finish Pokemon DB</t>
+  </si>
+  <si>
+    <t>Create 7 Complex Queries</t>
+  </si>
+  <si>
+    <t>Create 13 Medium Queries</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Name: Zackaria Mamdouh</t>
+  </si>
+  <si>
+    <t>Date: 3/24/24</t>
+  </si>
+  <si>
+    <t>Name Auyon Haque</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Project 1</t>
-  </si>
-  <si>
-    <t>% done</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Start By</t>
-  </si>
-  <si>
-    <t>Original Due By</t>
-  </si>
-  <si>
-    <t>Revised Due By</t>
-  </si>
-  <si>
-    <t>Number Of Days</t>
-  </si>
-  <si>
-    <t>Revision Notes</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Preparation</t>
-  </si>
-  <si>
-    <t>Task a</t>
-  </si>
-  <si>
-    <t>Task b</t>
-  </si>
-  <si>
-    <t>Task c</t>
-  </si>
-  <si>
-    <t>Task d</t>
-  </si>
-  <si>
-    <t>Paperwork</t>
-  </si>
-  <si>
-    <t>Hand-off</t>
-  </si>
-  <si>
-    <t>Follow-up</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Creating JDBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 complex problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 med problems </t>
+  </si>
+  <si>
+    <t>Name: Prithibi Paul</t>
+  </si>
+  <si>
+    <t>Date: 03/21/24</t>
   </si>
   <si>
     <t>Original Due By2</t>
-  </si>
-  <si>
-    <t>Name: Zackaria Mamdouh</t>
-  </si>
-  <si>
-    <t>Create JDBC</t>
-  </si>
-  <si>
-    <t>Create 7 Complex Queries</t>
-  </si>
-  <si>
-    <t>Create 13 Medium Queries</t>
-  </si>
-  <si>
-    <t>Create Pokemon DB</t>
-  </si>
-  <si>
-    <t>Recording</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>Finish Pokemon DB</t>
-  </si>
-  <si>
-    <t>Date: 3/24/24</t>
   </si>
 </sst>
 </file>
@@ -160,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +329,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -360,17 +355,8 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -381,7 +367,19 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -392,7 +390,7 @@
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -416,6 +414,39 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Perpetua"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -466,76 +497,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Perpetua"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Perpetua"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Perpetua"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -633,13 +598,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="To-do list for projects">
     <tableStyle name="To-do list for projects" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="lastColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -659,10 +624,10 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{52333874-C2BC-4FBF-9AA5-5291ED527120}" name="% done" dataCellStyle="Percent"/>
     <tableColumn id="2" xr3:uid="{B01D3C54-85C7-4AC4-B550-F441F081A8E7}" name="Phase" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{4A96FAF1-6CFF-4C95-A1B9-D6A409D17E24}" name="Start By"/>
-    <tableColumn id="7" xr3:uid="{288AAF48-94FD-483E-BC80-43361A2172AA}" name="Original Due By"/>
+    <tableColumn id="5" xr3:uid="{4A96FAF1-6CFF-4C95-A1B9-D6A409D17E24}" name="Start By" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{288AAF48-94FD-483E-BC80-43361A2172AA}" name="Original Due By" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{079E2D1B-453B-4EE7-A63C-A52ADC49D9FF}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{391FA284-95B3-4A59-A408-B42F0990F555}" name="Number Of Days" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{391FA284-95B3-4A59-A408-B42F0990F555}" name="Number Of Days" dataDxfId="6" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{3331DA69-AA66-4458-9EB4-B030D208F716}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -683,7 +648,7 @@
     <tableColumn id="5" xr3:uid="{0F9A5899-431E-43E9-917D-A7AEE008B96C}" name="Start By"/>
     <tableColumn id="7" xr3:uid="{3901E6BC-3146-4763-BD50-C73630D73D01}" name="Original Due By"/>
     <tableColumn id="3" xr3:uid="{BEFADCA8-D174-47F6-9028-257FEFDAEB18}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{924D9BAB-2A88-4987-AF70-68B3B9645206}" name="Number Of Days" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{924D9BAB-2A88-4987-AF70-68B3B9645206}" name="Number Of Days" dataDxfId="5" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{B690C0A8-6088-4AAA-911C-D12BBC6A687D}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -701,10 +666,10 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9C97606B-E575-415C-B47A-7AD57C400FE5}" name="% done" dataCellStyle="Percent"/>
     <tableColumn id="2" xr3:uid="{CB80D31A-7130-42B6-90AE-85A55AA25E8D}" name="Phase" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{AC33B8ED-8BF0-44AC-8A68-889CA8686F8E}" name="Start By"/>
-    <tableColumn id="7" xr3:uid="{353DA3C8-FC50-4AE0-B68B-653CFF7B021C}" name="Original Due By"/>
+    <tableColumn id="5" xr3:uid="{AC33B8ED-8BF0-44AC-8A68-889CA8686F8E}" name="Start By" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{353DA3C8-FC50-4AE0-B68B-653CFF7B021C}" name="Original Due By" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{383F117A-00AF-4025-A5FA-BE3DB143B37C}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{FC169D18-5326-465B-AC22-AAE3DAD8776D}" name="Number Of Days" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{FC169D18-5326-465B-AC22-AAE3DAD8776D}" name="Number Of Days" dataDxfId="2" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{F626FC71-D9D6-4F16-9F1D-68AB655AFB4F}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -723,52 +688,10 @@
     <tableColumn id="1" xr3:uid="{3E64B1A2-03C8-49E8-B97E-1246FAB0DAC8}" name="% done" dataCellStyle="Percent"/>
     <tableColumn id="2" xr3:uid="{3AE291A4-F911-482E-8151-2EF3B9F52607}" name="Phase" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{975EBC13-24BD-4728-A8EC-9D2F06633F32}" name="Start By"/>
-    <tableColumn id="7" xr3:uid="{A45F7DEE-3414-42C2-965F-B963467B1743}" name="Original Due By2"/>
+    <tableColumn id="7" xr3:uid="{A45F7DEE-3414-42C2-965F-B963467B1743}" name="Original Due By2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{AE79D1E6-B560-422E-BC0A-E4F69D3AD679}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{6A477119-15D5-41F0-BF23-60DAD5ECB7D6}" name="Number Of Days" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="8" xr3:uid="{6A477119-15D5-41F0-BF23-60DAD5ECB7D6}" name="Number Of Days" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="4" xr3:uid="{595BD41C-7869-4A83-9894-71F2EEA27F12}" name="Revision Notes"/>
-  </tableColumns>
-  <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter Percent done, project Phase, Due By date, and Notes for Project 1 in this table"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5EBD12AD-E102-4093-8E6C-14B5FC47984D}" name="Project16712" displayName="Project16712" ref="B7:H16" totalsRowShown="0">
-  <autoFilter ref="B7:H16" xr:uid="{198E80E5-DDE9-477D-B4DD-008005D22C1C}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{654998BF-A656-4239-8781-6DF4649B8B04}" name="% done" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{7A2AA8D5-51D4-4535-9931-89E2C5EA6EF7}" name="Phase" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{86FC8E71-7EE2-43B1-88C9-A57BD17630D8}" name="Start By"/>
-    <tableColumn id="7" xr3:uid="{8D158C8F-DD34-4AF8-B489-F2907A88488B}" name="Original Due By"/>
-    <tableColumn id="3" xr3:uid="{2B67D778-DABF-4DC7-96DA-737FD3C45D27}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{19813276-3D0E-4EFA-8739-5042E8767EAF}" name="Number Of Days" dataDxfId="1" dataCellStyle="Date"/>
-    <tableColumn id="4" xr3:uid="{0EBCFB5E-E247-43AE-961C-7A73D3A4BC34}" name="Revision Notes"/>
-  </tableColumns>
-  <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter Percent done, project Phase, Due By date, and Notes for Project 1 in this table"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DE4DA04-BF13-4711-984B-DE8DF5BC8A13}" name="Project167122" displayName="Project167122" ref="B7:H16" totalsRowShown="0">
-  <autoFilter ref="B7:H16" xr:uid="{64483C4C-F47F-4B19-928D-CCFF70122DC3}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D698FCE1-1AC1-41B2-92A0-B1349CEAE748}" name="% done" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{C9CFCE22-91E7-4F5B-8CA1-A6B2D858F115}" name="Phase" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{86DF2897-062A-44A9-92CC-121EECB7F7FD}" name="Start By"/>
-    <tableColumn id="7" xr3:uid="{EBCBFBE2-1E98-4969-8B5E-08678E911934}" name="Original Due By"/>
-    <tableColumn id="3" xr3:uid="{9FE4BF1F-B063-44C6-BA55-913909DD5864}" name="Revised Due By" dataCellStyle="Date"/>
-    <tableColumn id="8" xr3:uid="{2EFD8382-AEFE-405E-A40A-2B8A473313C2}" name="Number Of Days" dataDxfId="0" dataCellStyle="Date"/>
-    <tableColumn id="4" xr3:uid="{36097E1C-423E-495D-A462-E0D9407E1FC4}" name="Revision Notes"/>
   </tableColumns>
   <tableStyleInfo name="To-do list for projects" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1133,20 +1056,20 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.19921875" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1157,46 +1080,50 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
+    <row r="2" spans="2:8" ht="15" customHeight="1"/>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="6">
+        <v>45375</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="6">
+        <v>45375</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1"/>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1219,119 +1146,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" s="7">
+        <v>45357</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45357</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="D9" s="7">
+        <v>45361</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45361</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="D10" s="8">
+        <v>45361</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45361</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11" s="7">
+        <v>45363</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45363</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="D12" s="7">
+        <v>45371</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45371</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13" s="7">
+        <v>45374</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45374</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" s="7">
+        <v>45374</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45374</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" s="7">
+        <v>45375</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45375</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" s="7">
+        <v>45375</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45375</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16"/>
@@ -1385,21 +1348,21 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="4" width="30.796875" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="53.59765625" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1410,50 +1373,50 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
+    <row r="2" spans="2:8" ht="15" customHeight="1"/>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="6">
         <v>45375</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="F3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="6">
         <v>45375</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1"/>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1493,7 +1456,7 @@
       <c r="G8" s="4"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1510,12 +1473,12 @@
       <c r="G9" s="4"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" s="8">
         <v>45361</v>
@@ -1527,12 +1490,12 @@
       <c r="G10" s="4"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
         <v>45363</v>
@@ -1544,12 +1507,12 @@
       <c r="G11" s="4"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
         <v>45371</v>
@@ -1561,12 +1524,12 @@
       <c r="G12" s="4"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <v>45374</v>
@@ -1578,12 +1541,12 @@
       <c r="G13" s="4"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
         <v>45374</v>
@@ -1595,12 +1558,12 @@
       <c r="G14" s="4"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7">
         <v>45375</v>
@@ -1612,12 +1575,12 @@
       <c r="G15" s="4"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
         <v>45375</v>
@@ -1679,20 +1642,20 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="4" width="30.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="53.59765625" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1703,46 +1666,46 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
+    <row r="2" spans="2:8" ht="15" customHeight="1"/>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="F3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1"/>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1765,119 +1728,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" s="7">
+        <v>45357</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45357</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="D9" s="7">
+        <v>45361</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45361</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45361</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45361</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11" s="7">
+        <v>45363</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45363</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="D12" s="7">
+        <v>45371</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45371</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45374</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45374</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45374</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45374</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" s="7">
+        <v>45375</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45375</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" s="7">
+        <v>45375</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45375</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16"/>
@@ -1927,19 +1926,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30E5B4F-2070-4E52-85B8-76686C2B4348}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="4" width="30.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="53.59765625" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1950,46 +1951,50 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
+    <row r="2" spans="2:8" ht="15" customHeight="1"/>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="E3" s="6">
+        <v>45375</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="E4" s="6">
+        <v>45375</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1"/>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -2012,119 +2017,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" s="7">
+        <v>45357</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45357</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="D9" s="7">
+        <v>45361</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45361</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45361</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45361</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11" s="7">
+        <v>45365</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45365</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="D12" s="9">
+        <v>45371</v>
+      </c>
+      <c r="E12" s="9">
+        <v>45371</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45371</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45371</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45371</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45371</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" s="7">
+        <v>45375</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45375</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" s="7">
+        <v>45375</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45375</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16"/>
@@ -2163,480 +2204,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5497C06-4B81-4B87-BDAE-3EBCA32F17E6}">
-  <dimension ref="B1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="5" width="30.796875" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.59765625" customWidth="1"/>
-    <col min="9" max="9" width="2.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B6:H6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B8:B16">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="H7" xr:uid="{A625AB54-10E8-49FA-98D1-0B70D4443866}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="D7:G7" xr:uid="{6A9251D6-28B2-4664-9AD0-F405FC04A06C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter project Phase in this column under this heading" sqref="C7" xr:uid="{1828973F-D4BD-423C-9B52-20A3E3656FE1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Percent done in this column under this heading. Data bar showing Percent done is automatically updated in each row. Use heading filters to find specific entries" sqref="B7" xr:uid="{38D86588-DC85-4806-9AB7-94687B2B2045}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter details of Project 1 in table below" sqref="B6:H6" xr:uid="{D586F28E-CF8E-439C-8363-05E10ACA7FED}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in this cell" sqref="F4:H4" xr:uid="{B3D72213-D249-4648-AA40-FF0D936A8921}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in cell at right" sqref="B4:E4" xr:uid="{F7898E4A-1B34-467F-8608-3CEBD273B910}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="F3:H3" xr:uid="{CA5322C2-5908-485C-8F54-02DF75A1FD23}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in cell at right" sqref="B3:E3" xr:uid="{DD502B09-0ECB-4EFB-8349-CC4DFFDC3FC5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell D3 and deadline Date in cell D4. Enter project details in table starting in cell B7" sqref="B1" xr:uid="{8C59C4B3-2F6B-4F6C-9FCC-2384E972E9A2}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C70959-063A-4D2B-A77E-CBA19F05CF2F}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B6:H6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B8:B16">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell D3 and deadline Date in cell D4. Enter project details in table starting in cell B7" sqref="B1" xr:uid="{E1BC13C9-B354-4F1E-8FD0-4032E21423B2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in cell at right" sqref="B3:E3" xr:uid="{16DDCE08-ABE1-409F-997D-4BF09E1AC30C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in this cell" sqref="F3:H3" xr:uid="{4CBA3FED-50EE-46A2-9666-9D4E524A6986}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in cell at right" sqref="B4:E4" xr:uid="{35C96656-9501-4204-BE40-9E90DDBF6E17}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter deadline Date in this cell" sqref="F4:H4" xr:uid="{A802B69D-98A7-4589-833F-822C46CD99E9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter details of Project 1 in table below" sqref="B6:H6" xr:uid="{374326C9-DFCB-4148-B9F9-A58F4A97DD15}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Percent done in this column under this heading. Data bar showing Percent done is automatically updated in each row. Use heading filters to find specific entries" sqref="B7" xr:uid="{972A0694-5162-4C74-B414-967AF21155FC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter project Phase in this column under this heading" sqref="C7" xr:uid="{61F400D3-9DAC-44E1-AFEF-4532D3A466C1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due By date in this column under this heading" sqref="D7:G7" xr:uid="{0651D88E-2421-49C0-9AA0-91EE411175D4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="H7" xr:uid="{B6815222-0F6C-4015-BE1D-1CCE437C2D0F}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>